--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_26.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_26.xlsx
@@ -508,197 +508,197 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_9</t>
+          <t>model_1_26_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9934523179604867</v>
+        <v>0.8416071715288128</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8017532405209109</v>
+        <v>0.6211066156365188</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7523646967344302</v>
+        <v>0.7216267692671582</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9880634533711035</v>
+        <v>0.8053471460866893</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02725490129184606</v>
+        <v>0.3754215155037481</v>
       </c>
       <c r="G2" t="n">
-        <v>1.32567699347906</v>
+        <v>2.533661805882213</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8857771210610594</v>
+        <v>0.9957249053240529</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05115117646909377</v>
+        <v>0.6439411090079774</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2325822833643748</v>
+        <v>1.248212253403608</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1650905851096484</v>
+        <v>0.612716505003536</v>
       </c>
       <c r="L2" t="n">
-        <v>1.41905165052885</v>
+        <v>0.7843161484647664</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1676905967950856</v>
+        <v>0.6223661774655443</v>
       </c>
       <c r="N2" t="n">
-        <v>137.205043820251</v>
+        <v>35.95941168585974</v>
       </c>
       <c r="O2" t="n">
-        <v>278.5402163634674</v>
+        <v>72.92399527408556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_8</t>
+          <t>model_1_26_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9935184445405262</v>
+        <v>0.8412603190576069</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8014494386656232</v>
+        <v>0.6184783690819144</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7527674311995346</v>
+        <v>0.7209926436218363</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9888255882274796</v>
+        <v>0.8013474480860703</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02697964763706167</v>
+        <v>0.3762436226764858</v>
       </c>
       <c r="G3" t="n">
-        <v>1.327708517884247</v>
+        <v>2.551236902694815</v>
       </c>
       <c r="H3" t="n">
-        <v>0.884336563231267</v>
+        <v>0.9979931359886515</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04788523232764771</v>
+        <v>0.6571727155035217</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2315362777962066</v>
+        <v>1.247806607366549</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1642548253083046</v>
+        <v>0.6133870088911941</v>
       </c>
       <c r="L3" t="n">
-        <v>1.414819549406324</v>
+        <v>0.7838438387167413</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1668416746123239</v>
+        <v>0.6230472411191751</v>
       </c>
       <c r="N3" t="n">
-        <v>137.2253449768824</v>
+        <v>35.95503682551949</v>
       </c>
       <c r="O3" t="n">
-        <v>278.5605175200988</v>
+        <v>72.91962041374532</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_7</t>
+          <t>model_1_26_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9935176477367309</v>
+        <v>0.8411989500154792</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8012008217782867</v>
+        <v>0.6179840700601793</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7529530119849142</v>
+        <v>0.7208359581035456</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9892431942544185</v>
+        <v>0.8005342317344042</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02698296435413145</v>
+        <v>0.3763890791281633</v>
       </c>
       <c r="G4" t="n">
-        <v>1.329371020154642</v>
+        <v>2.554542282529196</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8836727515225565</v>
+        <v>0.9985535910024292</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04609568295104689</v>
+        <v>0.6598629583066837</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2320039259638306</v>
+        <v>1.245757759655206</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1642649212526261</v>
+        <v>0.6135055656863785</v>
       </c>
       <c r="L4" t="n">
-        <v>1.414870544849222</v>
+        <v>0.7837602723615036</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1668519295576762</v>
+        <v>0.6231676650653704</v>
       </c>
       <c r="N4" t="n">
-        <v>137.2250991239148</v>
+        <v>35.95426377139554</v>
       </c>
       <c r="O4" t="n">
-        <v>278.5602716671312</v>
+        <v>72.91884735962135</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_6</t>
+          <t>model_1_26_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9935154887455313</v>
+        <v>0.8411586120781431</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8009701433472924</v>
+        <v>0.6170718469464102</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7529974787149567</v>
+        <v>0.7210538680195131</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9896657654554727</v>
+        <v>0.7964469799930904</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02699195121263799</v>
+        <v>0.3764846878101545</v>
       </c>
       <c r="G5" t="n">
-        <v>1.330913567884878</v>
+        <v>2.560642322691371</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8835136966075232</v>
+        <v>0.9977741398681563</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04428485652462036</v>
+        <v>0.6733842058311027</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2326265903203405</v>
+        <v>1.225429447511101</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1642922737460225</v>
+        <v>0.6135834807181126</v>
       </c>
       <c r="L5" t="n">
-        <v>1.415008720285996</v>
+        <v>0.7837053441064077</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1668797128255012</v>
+        <v>0.6232468071809678</v>
       </c>
       <c r="N5" t="n">
-        <v>137.2244331213101</v>
+        <v>35.95375580479235</v>
       </c>
       <c r="O5" t="n">
-        <v>278.5596056645265</v>
+        <v>72.91833939301817</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9935132372349372</v>
+        <v>0.8410147147419728</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8007742735259836</v>
+        <v>0.615964315973011</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7531514750371632</v>
+        <v>0.7214199797423608</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9900946409369061</v>
+        <v>0.7912014642758711</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02700132318559404</v>
+        <v>0.376825752216564</v>
       </c>
       <c r="G6" t="n">
-        <v>1.332223350281867</v>
+        <v>2.568048387410202</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8829628606922106</v>
+        <v>0.9964645794639073</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04244701463315059</v>
+        <v>0.6907371659360145</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2325874004682845</v>
+        <v>1.199679485443353</v>
       </c>
       <c r="K6" t="n">
-        <v>0.164320793527764</v>
+        <v>0.6138613460844101</v>
       </c>
       <c r="L6" t="n">
-        <v>1.415152816964017</v>
+        <v>0.78350939879758</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1669086817652958</v>
+        <v>0.6235290486490211</v>
       </c>
       <c r="N6" t="n">
-        <v>137.2237388146095</v>
+        <v>35.95194478818304</v>
       </c>
       <c r="O6" t="n">
-        <v>278.5589113578259</v>
+        <v>72.91652837640886</v>
       </c>
     </row>
     <row r="7">
@@ -757,242 +757,242 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9935154847491315</v>
+        <v>0.8410286328962959</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8004915197001354</v>
+        <v>0.6159400998529551</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7533811893419656</v>
+        <v>0.7212969948931853</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9905650646240737</v>
+        <v>0.7917199858692076</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02699196784775906</v>
+        <v>0.3767927635096924</v>
       </c>
       <c r="G7" t="n">
-        <v>1.334114126417276</v>
+        <v>2.568210320716521</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8821411859435329</v>
+        <v>0.9969044891383368</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04043112797969427</v>
+        <v>0.6890218180068939</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2328408688907921</v>
+        <v>1.199571804701124</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1642923243726226</v>
+        <v>0.6138344756607373</v>
       </c>
       <c r="L7" t="n">
-        <v>1.415008976055582</v>
+        <v>0.7835283511779348</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1668797642494197</v>
+        <v>0.623501755043036</v>
       </c>
       <c r="N7" t="n">
-        <v>137.2244318887118</v>
+        <v>35.9521198831745</v>
       </c>
       <c r="O7" t="n">
-        <v>278.5596044319282</v>
+        <v>72.91670347140031</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_3</t>
+          <t>model_1_26_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9935221412319545</v>
+        <v>0.8403244981082735</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8001985816028198</v>
+        <v>0.6137242517025334</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7537742252786727</v>
+        <v>0.721553522071654</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9910683937432007</v>
+        <v>0.7825609653305901</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02696426006030133</v>
+        <v>0.3784616985984193</v>
       </c>
       <c r="G8" t="n">
-        <v>1.336073004822881</v>
+        <v>2.583027707501434</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8807353191874649</v>
+        <v>0.9959869062952551</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03827423307575537</v>
+        <v>0.7193212445218058</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2329192891320841</v>
+        <v>1.170155225886093</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1642079780653222</v>
+        <v>0.6151924077867178</v>
       </c>
       <c r="L8" t="n">
-        <v>1.414582961154913</v>
+        <v>0.7825695293389257</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1667940895720946</v>
+        <v>0.6248810732425665</v>
       </c>
       <c r="N8" t="n">
-        <v>137.2264859826296</v>
+        <v>35.94328080766301</v>
       </c>
       <c r="O8" t="n">
-        <v>278.561658525846</v>
+        <v>72.90786439588884</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_2</t>
+          <t>model_1_26_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9934801623909467</v>
+        <v>0.8403218578132333</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7999910232478883</v>
+        <v>0.6137199598904868</v>
       </c>
       <c r="D9" t="n">
-        <v>0.753763781143358</v>
+        <v>0.721630946564187</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9913266566634549</v>
+        <v>0.7820346542441914</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02713899810669819</v>
+        <v>0.3784679566062781</v>
       </c>
       <c r="G9" t="n">
-        <v>1.337460948498027</v>
+        <v>2.583056406868352</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8807726772539</v>
+        <v>0.9957099633747941</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03716750994886966</v>
+        <v>0.7210623612732184</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2334337062446266</v>
+        <v>1.16578409178082</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1647391820627327</v>
+        <v>0.6151974939856941</v>
       </c>
       <c r="L9" t="n">
-        <v>1.41726960697941</v>
+        <v>0.7825659340435518</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1673336595014551</v>
+        <v>0.6248862395440924</v>
       </c>
       <c r="N9" t="n">
-        <v>137.2135670820024</v>
+        <v>35.94324773717718</v>
       </c>
       <c r="O9" t="n">
-        <v>278.5487396252187</v>
+        <v>72.907831325403</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_1</t>
+          <t>model_1_26_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9934466743401015</v>
+        <v>0.8395257030265715</v>
       </c>
       <c r="C10" t="n">
-        <v>0.799788826893732</v>
+        <v>0.6118707076210105</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7538852167262436</v>
+        <v>0.7213532050798861</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9916632952866572</v>
+        <v>0.7762076108384874</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02727839301236636</v>
+        <v>0.3803549968180674</v>
       </c>
       <c r="G10" t="n">
-        <v>1.338813036449298</v>
+        <v>2.595422365309363</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8803383092151573</v>
+        <v>0.9967034285597622</v>
       </c>
       <c r="I10" t="n">
-        <v>0.035724926749802</v>
+        <v>0.740339103008419</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2322376233044237</v>
+        <v>1.157367143438826</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1651617177567682</v>
+        <v>0.6167292735212652</v>
       </c>
       <c r="L10" t="n">
-        <v>1.419412842233506</v>
+        <v>0.781481808376608</v>
       </c>
       <c r="M10" t="n">
-        <v>0.167762849710291</v>
+        <v>0.6264421430761309</v>
       </c>
       <c r="N10" t="n">
-        <v>137.2033207098266</v>
+        <v>35.9333005204083</v>
       </c>
       <c r="O10" t="n">
-        <v>278.538493253043</v>
+        <v>72.89788410863412</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_0</t>
+          <t>model_1_26_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.993395726827904</v>
+        <v>0.8392808690343353</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7995770511461637</v>
+        <v>0.6109425709294563</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7539138972999895</v>
+        <v>0.7209157645685045</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9919050116709436</v>
+        <v>0.7752488272870373</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02749046339202578</v>
+        <v>0.3809353005433012</v>
       </c>
       <c r="G11" t="n">
-        <v>1.340229181848425</v>
+        <v>2.601628819639463</v>
       </c>
       <c r="H11" t="n">
-        <v>0.880235720465864</v>
+        <v>0.9982681279047163</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0346891097909698</v>
+        <v>0.7435109041457113</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2324799162556423</v>
+        <v>1.154426623615319</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1658024830695421</v>
+        <v>0.6171995629804846</v>
       </c>
       <c r="L11" t="n">
-        <v>1.422673483014144</v>
+        <v>0.7811484174084566</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1684137064362107</v>
+        <v>0.6269198391242161</v>
       </c>
       <c r="N11" t="n">
-        <v>137.1878322403964</v>
+        <v>35.93025146624517</v>
       </c>
       <c r="O11" t="n">
-        <v>278.5230047836128</v>
+        <v>72.894835054471</v>
       </c>
     </row>
   </sheetData>
